--- a/reports/data/query.xlsx
+++ b/reports/data/query.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大三下\搜索引擎技术基础\bigwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xieyuntong/Documents/code/course/search-engine/project/ImageSearchFrontend/reports/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAC1664-3AE9-484C-B29E-5C23051042DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AD9354-51B9-E749-A811-60F895357DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1240" windowWidth="23770" windowHeight="11570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="500" windowWidth="23780" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>car</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,23 +129,53 @@
   <si>
     <t>car &amp; color</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candy &amp; color</t>
+  </si>
+  <si>
+    <t>59，168，30</t>
+  </si>
+  <si>
+    <t>1111110000</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>P@10</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>success@10</t>
+  </si>
+  <si>
+    <t>25 </t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>MRR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -155,6 +185,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,16 +212,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,234 +503,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1111111111</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>114</v>
       </c>
-      <c r="D2" s="2">
+      <c r="H2" s="2">
         <v>5072</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J2" s="3">
+        <f>AVERAGE(C2:C12)</f>
+        <v>0.77297619047619015</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" ref="K2:L2" si="0">AVERAGE(D2:D12)</f>
+        <v>0.73636363636363644</v>
+      </c>
+      <c r="L2" s="3">
+        <f>AVERAGE(E2:E12)</f>
+        <v>0.8712121212121211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1111010011</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
+        <v>0.83392857142857102</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>88</v>
       </c>
-      <c r="D3">
+      <c r="H3">
         <v>614</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1111111111</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>74</v>
       </c>
-      <c r="D4">
+      <c r="H4">
         <v>1152</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
+        <v>0.30658730158730102</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>83</v>
       </c>
-      <c r="D5">
+      <c r="H5">
         <v>3380</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1100000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
+        <v>0.49579365079365001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>77</v>
       </c>
-      <c r="D6">
+      <c r="H6">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1889</v>
+      </c>
+      <c r="H8" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.49309523809523798</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1714</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C10" s="3">
+        <v>0.88753968253968196</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>181</v>
       </c>
-      <c r="D7">
+      <c r="H10">
         <v>4022</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C11" s="3">
+        <v>0.48579365079365</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>286</v>
       </c>
-      <c r="D8" s="2">
+      <c r="H11" s="2">
         <v>5908</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>169</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1714</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1889</v>
-      </c>
-      <c r="D11" s="2">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>169</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
+        <v>0.89432539682539602</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <f>AVERAGE(C16:C17)</f>
+        <v>0.90640873015872958</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" ref="K16:L16" si="1">AVERAGE(D16:D17)</f>
+        <v>0.8</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>0.91849206349206303</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>197.2</v>
+      </c>
+      <c r="H20">
+        <v>78</v>
+      </c>
+      <c r="J20" s="3">
+        <f>AVERAGE(C20:C30)</f>
+        <v>0.94088624338624305</v>
+      </c>
+      <c r="K20" s="3">
+        <f>AVERAGE(D20:D30)</f>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="L20" s="3">
+        <f>AVERAGE(E20:E30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <v>0.93527777777777699</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>185</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.88738095238095205</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>112</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K1" r:id="rId1" xr:uid="{F65A403B-748F-C343-B61E-78C870724482}"/>
+    <hyperlink ref="K19" r:id="rId2" xr:uid="{92820A5E-D014-A341-B411-B745DEAE5358}"/>
+    <hyperlink ref="K15" r:id="rId3" xr:uid="{E1C4BE90-64C7-E748-AB5B-40752A6C6064}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>